--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Angpt2-Tie1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Angpt2-Tie1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.709516000000001</v>
+        <v>8.307976</v>
       </c>
       <c r="H2">
-        <v>17.128548</v>
+        <v>24.923928</v>
       </c>
       <c r="I2">
-        <v>0.394755842864453</v>
+        <v>0.463503063770797</v>
       </c>
       <c r="J2">
-        <v>0.394755842864453</v>
+        <v>0.4635030637707969</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>55.49161133333333</v>
+        <v>106.3675996666667</v>
       </c>
       <c r="N2">
-        <v>166.474834</v>
+        <v>319.102799</v>
       </c>
       <c r="O2">
-        <v>0.9954988457613663</v>
+        <v>0.9937770853850048</v>
       </c>
       <c r="P2">
-        <v>0.9954988457613663</v>
+        <v>0.9937770853850048</v>
       </c>
       <c r="Q2">
-        <v>316.830242773448</v>
+        <v>883.6994652082747</v>
       </c>
       <c r="R2">
-        <v>2851.472184961032</v>
+        <v>7953.295186874472</v>
       </c>
       <c r="S2">
-        <v>0.3929789859291182</v>
+        <v>0.4606187237811626</v>
       </c>
       <c r="T2">
-        <v>0.3929789859291182</v>
+        <v>0.4606187237811625</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.709516000000001</v>
+        <v>8.307976</v>
       </c>
       <c r="H3">
-        <v>17.128548</v>
+        <v>24.923928</v>
       </c>
       <c r="I3">
-        <v>0.394755842864453</v>
+        <v>0.463503063770797</v>
       </c>
       <c r="J3">
-        <v>0.394755842864453</v>
+        <v>0.4635030637707969</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.045603</v>
       </c>
       <c r="O3">
-        <v>0.0002727002801111403</v>
+        <v>0.0001420207424279358</v>
       </c>
       <c r="P3">
-        <v>0.0002727002801111403</v>
+        <v>0.0001420207424279358</v>
       </c>
       <c r="Q3">
-        <v>0.08679035271600001</v>
+        <v>0.126289543176</v>
       </c>
       <c r="R3">
-        <v>0.7811131744440001</v>
+        <v>1.136605888584</v>
       </c>
       <c r="S3">
-        <v>0.0001076500289246456</v>
+        <v>6.582704923435146E-05</v>
       </c>
       <c r="T3">
-        <v>0.0001076500289246456</v>
+        <v>6.582704923435145E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.709516000000001</v>
+        <v>8.307976</v>
       </c>
       <c r="H4">
-        <v>17.128548</v>
+        <v>24.923928</v>
       </c>
       <c r="I4">
-        <v>0.394755842864453</v>
+        <v>0.463503063770797</v>
       </c>
       <c r="J4">
-        <v>0.394755842864453</v>
+        <v>0.4635030637707969</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,33 +679,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2357046666666666</v>
+        <v>0.5886716666666666</v>
       </c>
       <c r="N4">
-        <v>0.7071139999999999</v>
+        <v>1.766015</v>
       </c>
       <c r="O4">
-        <v>0.00422845395852266</v>
+        <v>0.005499874162639981</v>
       </c>
       <c r="P4">
-        <v>0.00422845395852266</v>
+        <v>0.005499874162639981</v>
       </c>
       <c r="Q4">
-        <v>1.345759565608</v>
+        <v>4.890670078546666</v>
       </c>
       <c r="R4">
-        <v>12.111836090472</v>
+        <v>44.01603070692</v>
       </c>
       <c r="S4">
-        <v>0.001669206906410145</v>
+        <v>0.002549208524737478</v>
       </c>
       <c r="T4">
-        <v>0.001669206906410145</v>
+        <v>0.002549208524737477</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.281282666666666</v>
+        <v>8.307976</v>
       </c>
       <c r="H5">
-        <v>9.843847999999999</v>
+        <v>24.923928</v>
       </c>
       <c r="I5">
-        <v>0.2268678299100168</v>
+        <v>0.463503063770797</v>
       </c>
       <c r="J5">
-        <v>0.2268678299100168</v>
+        <v>0.4635030637707969</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>55.49161133333333</v>
+        <v>0.06218866666666667</v>
       </c>
       <c r="N5">
-        <v>166.474834</v>
+        <v>0.186566</v>
       </c>
       <c r="O5">
-        <v>0.9954988457613663</v>
+        <v>0.0005810197099272038</v>
       </c>
       <c r="P5">
-        <v>0.9954988457613663</v>
+        <v>0.0005810197099272037</v>
       </c>
       <c r="Q5">
-        <v>182.0836624134702</v>
+        <v>0.5166619501386667</v>
       </c>
       <c r="R5">
-        <v>1638.752961721232</v>
+        <v>4.649957551248001</v>
       </c>
       <c r="S5">
-        <v>0.2258466628158077</v>
+        <v>0.0002693044156624787</v>
       </c>
       <c r="T5">
-        <v>0.2258466628158077</v>
+        <v>0.0002693044156624787</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +791,40 @@
         <v>9.843847999999999</v>
       </c>
       <c r="I6">
-        <v>0.2268678299100168</v>
+        <v>0.1830631876040579</v>
       </c>
       <c r="J6">
-        <v>0.2268678299100168</v>
+        <v>0.1830631876040579</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.015201</v>
+        <v>106.3675996666667</v>
       </c>
       <c r="N6">
-        <v>0.045603</v>
+        <v>319.102799</v>
       </c>
       <c r="O6">
-        <v>0.0002727002801111403</v>
+        <v>0.9937770853850048</v>
       </c>
       <c r="P6">
-        <v>0.0002727002801111403</v>
+        <v>0.9937770853850048</v>
       </c>
       <c r="Q6">
-        <v>0.049878777816</v>
+        <v>349.0221610811724</v>
       </c>
       <c r="R6">
-        <v>0.4489090003439999</v>
+        <v>3141.199449730552</v>
       </c>
       <c r="S6">
-        <v>6.186692076466812E-05</v>
+        <v>0.181924001018449</v>
       </c>
       <c r="T6">
-        <v>6.186692076466812E-05</v>
+        <v>0.181924001018449</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,45 +853,45 @@
         <v>9.843847999999999</v>
       </c>
       <c r="I7">
-        <v>0.2268678299100168</v>
+        <v>0.1830631876040579</v>
       </c>
       <c r="J7">
-        <v>0.2268678299100168</v>
+        <v>0.1830631876040579</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.2357046666666666</v>
+        <v>0.015201</v>
       </c>
       <c r="N7">
-        <v>0.7071139999999999</v>
+        <v>0.045603</v>
       </c>
       <c r="O7">
-        <v>0.00422845395852266</v>
+        <v>0.0001420207424279358</v>
       </c>
       <c r="P7">
-        <v>0.00422845395852266</v>
+        <v>0.0001420207424279358</v>
       </c>
       <c r="Q7">
-        <v>0.7734136371857776</v>
+        <v>0.049878777816</v>
       </c>
       <c r="R7">
-        <v>6.960722734671998</v>
+        <v>0.4489090003439999</v>
       </c>
       <c r="S7">
-        <v>0.000959300173444456</v>
+        <v>2.59987698147528E-05</v>
       </c>
       <c r="T7">
-        <v>0.0009593001734444561</v>
+        <v>2.59987698147528E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.083764</v>
+        <v>3.281282666666666</v>
       </c>
       <c r="H8">
-        <v>12.251292</v>
+        <v>9.843847999999999</v>
       </c>
       <c r="I8">
-        <v>0.2823513761726055</v>
+        <v>0.1830631876040579</v>
       </c>
       <c r="J8">
-        <v>0.2823513761726055</v>
+        <v>0.1830631876040579</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>55.49161133333333</v>
+        <v>0.5886716666666666</v>
       </c>
       <c r="N8">
-        <v>166.474834</v>
+        <v>1.766015</v>
       </c>
       <c r="O8">
-        <v>0.9954988457613663</v>
+        <v>0.005499874162639981</v>
       </c>
       <c r="P8">
-        <v>0.9954988457613663</v>
+        <v>0.005499874162639981</v>
       </c>
       <c r="Q8">
-        <v>226.6146446650587</v>
+        <v>1.931598136191111</v>
       </c>
       <c r="R8">
-        <v>2039.531801985528</v>
+        <v>17.38438322572</v>
       </c>
       <c r="S8">
-        <v>0.2810804690789621</v>
+        <v>0.001006824495634074</v>
       </c>
       <c r="T8">
-        <v>0.2810804690789621</v>
+        <v>0.001006824495634074</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.083764</v>
+        <v>3.281282666666666</v>
       </c>
       <c r="H9">
-        <v>12.251292</v>
+        <v>9.843847999999999</v>
       </c>
       <c r="I9">
-        <v>0.2823513761726055</v>
+        <v>0.1830631876040579</v>
       </c>
       <c r="J9">
-        <v>0.2823513761726055</v>
+        <v>0.1830631876040579</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.015201</v>
+        <v>0.06218866666666667</v>
       </c>
       <c r="N9">
-        <v>0.045603</v>
+        <v>0.186566</v>
       </c>
       <c r="O9">
-        <v>0.0002727002801111403</v>
+        <v>0.0005810197099272038</v>
       </c>
       <c r="P9">
-        <v>0.0002727002801111403</v>
+        <v>0.0005810197099272037</v>
       </c>
       <c r="Q9">
-        <v>0.062077296564</v>
+        <v>0.2040585939964444</v>
       </c>
       <c r="R9">
-        <v>0.558695669076</v>
+        <v>1.836527345968</v>
       </c>
       <c r="S9">
-        <v>7.699729937203546E-05</v>
+        <v>0.000106363320160059</v>
       </c>
       <c r="T9">
-        <v>7.699729937203546E-05</v>
+        <v>0.000106363320160059</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,51 +1033,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.083764</v>
+        <v>5.1529</v>
       </c>
       <c r="H10">
-        <v>12.251292</v>
+        <v>15.4587</v>
       </c>
       <c r="I10">
-        <v>0.2823513761726055</v>
+        <v>0.2874809625478624</v>
       </c>
       <c r="J10">
-        <v>0.2823513761726055</v>
+        <v>0.2874809625478624</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2357046666666666</v>
+        <v>106.3675996666667</v>
       </c>
       <c r="N10">
-        <v>0.7071139999999999</v>
+        <v>319.102799</v>
       </c>
       <c r="O10">
-        <v>0.00422845395852266</v>
+        <v>0.9937770853850048</v>
       </c>
       <c r="P10">
-        <v>0.00422845395852266</v>
+        <v>0.9937770853850048</v>
       </c>
       <c r="Q10">
-        <v>0.9625622323653333</v>
+        <v>548.1016043223666</v>
       </c>
       <c r="R10">
-        <v>8.663060091287999</v>
+        <v>4932.9144389013</v>
       </c>
       <c r="S10">
-        <v>0.001193909794271374</v>
+        <v>0.2856919930644904</v>
       </c>
       <c r="T10">
-        <v>0.001193909794271374</v>
+        <v>0.2856919930644904</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,51 +1095,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.388848333333333</v>
+        <v>5.1529</v>
       </c>
       <c r="H11">
-        <v>4.166545</v>
+        <v>15.4587</v>
       </c>
       <c r="I11">
-        <v>0.09602495105292475</v>
+        <v>0.2874809625478624</v>
       </c>
       <c r="J11">
-        <v>0.09602495105292475</v>
+        <v>0.2874809625478624</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>55.49161133333333</v>
+        <v>0.015201</v>
       </c>
       <c r="N11">
-        <v>166.474834</v>
+        <v>0.045603</v>
       </c>
       <c r="O11">
-        <v>0.9954988457613663</v>
+        <v>0.0001420207424279358</v>
       </c>
       <c r="P11">
-        <v>0.9954988457613663</v>
+        <v>0.0001420207424279358</v>
       </c>
       <c r="Q11">
-        <v>77.06943191428111</v>
+        <v>0.07832923289999999</v>
       </c>
       <c r="R11">
-        <v>693.6248872285299</v>
+        <v>0.7049630961</v>
       </c>
       <c r="S11">
-        <v>0.09559272793747828</v>
+        <v>4.082825973494502E-05</v>
       </c>
       <c r="T11">
-        <v>0.09559272793747828</v>
+        <v>4.082825973494502E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,51 +1157,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.388848333333333</v>
+        <v>5.1529</v>
       </c>
       <c r="H12">
-        <v>4.166545</v>
+        <v>15.4587</v>
       </c>
       <c r="I12">
-        <v>0.09602495105292475</v>
+        <v>0.2874809625478624</v>
       </c>
       <c r="J12">
-        <v>0.09602495105292475</v>
+        <v>0.2874809625478624</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.015201</v>
+        <v>0.5886716666666666</v>
       </c>
       <c r="N12">
-        <v>0.045603</v>
+        <v>1.766015</v>
       </c>
       <c r="O12">
-        <v>0.0002727002801111403</v>
+        <v>0.005499874162639981</v>
       </c>
       <c r="P12">
-        <v>0.0002727002801111403</v>
+        <v>0.005499874162639981</v>
       </c>
       <c r="Q12">
-        <v>0.021111883515</v>
+        <v>3.033366231166666</v>
       </c>
       <c r="R12">
-        <v>0.190006951635</v>
+        <v>27.3002960805</v>
       </c>
       <c r="S12">
-        <v>2.618603104979112E-05</v>
+        <v>0.00158110911816786</v>
       </c>
       <c r="T12">
-        <v>2.618603104979112E-05</v>
+        <v>0.00158110911816786</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,7 +1210,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.388848333333333</v>
+        <v>5.1529</v>
       </c>
       <c r="H13">
-        <v>4.166545</v>
+        <v>15.4587</v>
       </c>
       <c r="I13">
-        <v>0.09602495105292475</v>
+        <v>0.2874809625478624</v>
       </c>
       <c r="J13">
-        <v>0.09602495105292475</v>
+        <v>0.2874809625478624</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1237,28 +1237,276 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.2357046666666666</v>
+        <v>0.06218866666666667</v>
       </c>
       <c r="N13">
-        <v>0.7071139999999999</v>
+        <v>0.186566</v>
       </c>
       <c r="O13">
-        <v>0.00422845395852266</v>
+        <v>0.0005810197099272038</v>
       </c>
       <c r="P13">
-        <v>0.00422845395852266</v>
+        <v>0.0005810197099272037</v>
       </c>
       <c r="Q13">
-        <v>0.3273580334588889</v>
+        <v>0.3204519804666667</v>
       </c>
       <c r="R13">
-        <v>2.94622230113</v>
+        <v>2.8840678242</v>
       </c>
       <c r="S13">
-        <v>0.0004060370843966843</v>
+        <v>0.0001670321054691524</v>
       </c>
       <c r="T13">
-        <v>0.0004060370843966843</v>
+        <v>0.0001670321054691523</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.182158666666667</v>
+      </c>
+      <c r="H14">
+        <v>3.546476</v>
+      </c>
+      <c r="I14">
+        <v>0.06595278607728289</v>
+      </c>
+      <c r="J14">
+        <v>0.06595278607728287</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>106.3675996666667</v>
+      </c>
+      <c r="N14">
+        <v>319.102799</v>
+      </c>
+      <c r="O14">
+        <v>0.9937770853850048</v>
+      </c>
+      <c r="P14">
+        <v>0.9937770853850048</v>
+      </c>
+      <c r="Q14">
+        <v>125.7433797984805</v>
+      </c>
+      <c r="R14">
+        <v>1131.690418186324</v>
+      </c>
+      <c r="S14">
+        <v>0.06554236752090291</v>
+      </c>
+      <c r="T14">
+        <v>0.06554236752090289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.182158666666667</v>
+      </c>
+      <c r="H15">
+        <v>3.546476</v>
+      </c>
+      <c r="I15">
+        <v>0.06595278607728289</v>
+      </c>
+      <c r="J15">
+        <v>0.06595278607728287</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.015201</v>
+      </c>
+      <c r="N15">
+        <v>0.045603</v>
+      </c>
+      <c r="O15">
+        <v>0.0001420207424279358</v>
+      </c>
+      <c r="P15">
+        <v>0.0001420207424279358</v>
+      </c>
+      <c r="Q15">
+        <v>0.017969993892</v>
+      </c>
+      <c r="R15">
+        <v>0.161729945028</v>
+      </c>
+      <c r="S15">
+        <v>9.366663643886544E-06</v>
+      </c>
+      <c r="T15">
+        <v>9.366663643886542E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.182158666666667</v>
+      </c>
+      <c r="H16">
+        <v>3.546476</v>
+      </c>
+      <c r="I16">
+        <v>0.06595278607728289</v>
+      </c>
+      <c r="J16">
+        <v>0.06595278607728287</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.5886716666666666</v>
+      </c>
+      <c r="N16">
+        <v>1.766015</v>
+      </c>
+      <c r="O16">
+        <v>0.005499874162639981</v>
+      </c>
+      <c r="P16">
+        <v>0.005499874162639981</v>
+      </c>
+      <c r="Q16">
+        <v>0.6959033125711112</v>
+      </c>
+      <c r="R16">
+        <v>6.26312981314</v>
+      </c>
+      <c r="S16">
+        <v>0.00036273202410057</v>
+      </c>
+      <c r="T16">
+        <v>0.0003627320241005699</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.182158666666667</v>
+      </c>
+      <c r="H17">
+        <v>3.546476</v>
+      </c>
+      <c r="I17">
+        <v>0.06595278607728289</v>
+      </c>
+      <c r="J17">
+        <v>0.06595278607728287</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.06218866666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.186566</v>
+      </c>
+      <c r="O17">
+        <v>0.0005810197099272038</v>
+      </c>
+      <c r="P17">
+        <v>0.0005810197099272037</v>
+      </c>
+      <c r="Q17">
+        <v>0.07351687126844446</v>
+      </c>
+      <c r="R17">
+        <v>0.6616518414160001</v>
+      </c>
+      <c r="S17">
+        <v>3.831986863551383E-05</v>
+      </c>
+      <c r="T17">
+        <v>3.831986863551382E-05</v>
       </c>
     </row>
   </sheetData>
